--- a/refs/heads/rc2-umbrella/StructureDefinition-svc-bundle.xlsx
+++ b/refs/heads/rc2-umbrella/StructureDefinition-svc-bundle.xlsx
@@ -768,7 +768,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Patient {https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/svc-patient}
+    <t xml:space="preserve">Patient {https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/shc-patient}
 </t>
   </si>
   <si>
@@ -787,7 +787,7 @@
     <t>SVC_Author_Entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Organization {https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/svc-organization}
+    <t xml:space="preserve">Organization {https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/shc-organization}
 </t>
   </si>
   <si>
@@ -836,7 +836,7 @@
 EventActivity</t>
   </si>
   <si>
-    <t xml:space="preserve">Provenance {https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/svc-provenance}
+    <t xml:space="preserve">Provenance {https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/shc-provenance}
 </t>
   </si>
   <si>

--- a/refs/heads/rc2-umbrella/StructureDefinition-svc-bundle.xlsx
+++ b/refs/heads/rc2-umbrella/StructureDefinition-svc-bundle.xlsx
@@ -735,7 +735,7 @@
 This outcome is not used for error responses in batch/transaction, only for hints and warnings. In a batch operation, the error will be in Bundle.entry.response, and for transaction, there will be a single OperationOutcome instead of a bundle in the case of an error.</t>
   </si>
   <si>
-    <t>SVC_Composition_Entry</t>
+    <t>svcCompositionEntry</t>
   </si>
   <si>
     <t xml:space="preserve">Composition {https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/svc-composition}
@@ -761,7 +761,7 @@
     <t>ClinicalDocument</t>
   </si>
   <si>
-    <t>SVC_Patient_Entry</t>
+    <t>svcPatientEntry</t>
   </si>
   <si>
     <t xml:space="preserve">SubjectOfCare Client Resident
@@ -784,7 +784,7 @@
     <t>ClinicalDocument.recordTarget.patientRole</t>
   </si>
   <si>
-    <t>SVC_Author_Entry</t>
+    <t>svcAuthorEntry</t>
   </si>
   <si>
     <t xml:space="preserve">Organization {https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/shc-organization}
@@ -807,7 +807,7 @@
     <t>Organization(classCode=ORG, determinerCode=INST)</t>
   </si>
   <si>
-    <t>SVC_Immunization_Entry</t>
+    <t>svcImmunizationEntry</t>
   </si>
   <si>
     <t xml:space="preserve">Immunization {https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/svc-immunization}
@@ -826,10 +826,10 @@
     <t>SubstanceAdministration</t>
   </si>
   <si>
-    <t>SVC_Other_Entry</t>
+    <t>svcOtherEntry</t>
   </si>
   <si>
-    <t>SVC_Provenance_Entry</t>
+    <t>svcProvenanceEntry</t>
   </si>
   <si>
     <t>History
@@ -1027,7 +1027,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="39.00390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.99609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.51171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="28.78125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
